--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110820.5654023326</v>
+        <v>-13277.81055797638</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10121630.11921146</v>
+        <v>10095312.09622575</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22046455.82460525</v>
+        <v>22050385.14120355</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4114935.324838184</v>
+        <v>4114835.097230193</v>
       </c>
     </row>
     <row r="11">
@@ -8698,7 +8698,7 @@
         <v>47.55688531513388</v>
       </c>
       <c r="M11" t="n">
-        <v>20.92686739226636</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N11" t="n">
         <v>16.60507348116786</v>
@@ -8710,7 +8710,7 @@
         <v>59.72805697682125</v>
       </c>
       <c r="Q11" t="n">
-        <v>93.51262335026308</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>66.54876907979121</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K12" t="n">
-        <v>34.79817869043559</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>12.12044141380176</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q12" t="n">
         <v>58.52562482607891</v>
@@ -8850,7 +8850,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>66.85797092510069</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L13" t="n">
         <v>55.34730792350439</v>
@@ -8865,7 +8865,7 @@
         <v>62.83913578423567</v>
       </c>
       <c r="P13" t="n">
-        <v>73.02425275703001</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8935,7 +8935,7 @@
         <v>47.55688531513388</v>
       </c>
       <c r="M14" t="n">
-        <v>20.92686739226636</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N14" t="n">
         <v>16.60507348116786</v>
@@ -8947,7 +8947,7 @@
         <v>59.72805697682125</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.51262335026308</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>66.54876907979121</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K15" t="n">
-        <v>34.79817869043559</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>12.12044141380176</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q15" t="n">
         <v>58.52562482607891</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>66.85797092510069</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L16" t="n">
         <v>55.34730792350439</v>
@@ -9102,7 +9102,7 @@
         <v>62.83913578423567</v>
       </c>
       <c r="P16" t="n">
-        <v>73.02425275703001</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679383</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601003</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>74.95115227296735</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S11" t="n">
-        <v>181.8424978167795</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T11" t="n">
         <v>217.8750126833486</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.5380826090839</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S12" t="n">
         <v>159.8302714297086</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>74.95115227296735</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S14" t="n">
-        <v>181.8424978167795</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T14" t="n">
         <v>217.8750126833486</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.5380826090839</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S15" t="n">
         <v>159.8302714297086</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4466155766215</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848996</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>356392.5793501112</v>
+        <v>356219.017561954</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>64504.44331886782</v>
       </c>
       <c r="C2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886783</v>
       </c>
       <c r="D2" t="n">
         <v>64504.44331886782</v>
@@ -26325,7 +26325,7 @@
         <v>71260.70145735363</v>
       </c>
       <c r="F2" t="n">
-        <v>71260.70145735363</v>
+        <v>71260.70145735364</v>
       </c>
       <c r="G2" t="n">
         <v>71260.70145735363</v>
@@ -26355,7 +26355,7 @@
         <v>71260.70145735363</v>
       </c>
       <c r="P2" t="n">
-        <v>71732.21944914956</v>
+        <v>71260.70145735363</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15407.33708176102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>11792.29385141108</v>
       </c>
       <c r="P4" t="n">
-        <v>9686.852012554569</v>
+        <v>11792.29385141108</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>6467.457040608691</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.102563257328</v>
+        <v>6467.457040608691</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371074</v>
+        <v>-27276.7928637455</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371074</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371074</v>
+        <v>-27276.7928637455</v>
       </c>
       <c r="E6" t="n">
-        <v>-185346.4984620122</v>
+        <v>-199934.1509205065</v>
       </c>
       <c r="F6" t="n">
-        <v>53000.95056533386</v>
+        <v>38413.2981068396</v>
       </c>
       <c r="G6" t="n">
-        <v>53000.95056533386</v>
+        <v>38413.29810683959</v>
       </c>
       <c r="H6" t="n">
-        <v>53000.95056533386</v>
+        <v>38413.29810683959</v>
       </c>
       <c r="I6" t="n">
-        <v>53000.95056533386</v>
+        <v>38413.29810683959</v>
       </c>
       <c r="J6" t="n">
-        <v>53000.95056533386</v>
+        <v>38413.29810683959</v>
       </c>
       <c r="K6" t="n">
-        <v>53000.95056533386</v>
+        <v>38413.29810683959</v>
       </c>
       <c r="L6" t="n">
-        <v>53000.95056533386</v>
+        <v>38413.29810683959</v>
       </c>
       <c r="M6" t="n">
-        <v>53000.95056533386</v>
+        <v>38413.29810683959</v>
       </c>
       <c r="N6" t="n">
-        <v>53000.95056533386</v>
+        <v>38413.29810683959</v>
       </c>
       <c r="O6" t="n">
-        <v>53000.95056533386</v>
+        <v>38413.29810683959</v>
       </c>
       <c r="P6" t="n">
-        <v>39665.92779157664</v>
+        <v>38413.29810683959</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>296.6723413123253</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>296.6723413123253</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.14887718571737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31758,7 +31758,7 @@
         <v>12.21425373051196</v>
       </c>
       <c r="I11" t="n">
-        <v>45.97974045605396</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J11" t="n">
         <v>101.2249010189225</v>
@@ -31770,7 +31770,7 @@
         <v>188.2095296548534</v>
       </c>
       <c r="M11" t="n">
-        <v>209.4193658350064</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N11" t="n">
         <v>212.8079901154231</v>
@@ -31785,13 +31785,13 @@
         <v>128.7930665241864</v>
       </c>
       <c r="R11" t="n">
-        <v>74.91796566818233</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S11" t="n">
-        <v>27.17757176946579</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T11" t="n">
-        <v>5.220836880782728</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U11" t="n">
         <v>0.09541221027130049</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H12" t="n">
         <v>6.162948071412645</v>
@@ -31922,7 +31922,7 @@
         <v>37.82329177681891</v>
       </c>
       <c r="K13" t="n">
-        <v>62.15528724543469</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L13" t="n">
         <v>79.5373683577339</v>
@@ -31937,7 +31937,7 @@
         <v>75.61740266760712</v>
       </c>
       <c r="P13" t="n">
-        <v>64.7037512921176</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q13" t="n">
         <v>44.79752353816112</v>
@@ -31946,7 +31946,7 @@
         <v>24.05477705132394</v>
       </c>
       <c r="S13" t="n">
-        <v>9.323293086815202</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T13" t="n">
         <v>2.28583607240644</v>
@@ -31995,7 +31995,7 @@
         <v>12.21425373051196</v>
       </c>
       <c r="I14" t="n">
-        <v>45.97974045605396</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J14" t="n">
         <v>101.2249010189225</v>
@@ -32007,7 +32007,7 @@
         <v>188.2095296548534</v>
       </c>
       <c r="M14" t="n">
-        <v>209.4193658350064</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N14" t="n">
         <v>212.8079901154231</v>
@@ -32022,13 +32022,13 @@
         <v>128.7930665241864</v>
       </c>
       <c r="R14" t="n">
-        <v>74.91796566818233</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S14" t="n">
-        <v>27.17757176946579</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T14" t="n">
-        <v>5.220836880782728</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U14" t="n">
         <v>0.09541221027130049</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H15" t="n">
         <v>6.162948071412645</v>
@@ -32159,7 +32159,7 @@
         <v>37.82329177681891</v>
       </c>
       <c r="K16" t="n">
-        <v>62.15528724543469</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L16" t="n">
         <v>79.5373683577339</v>
@@ -32174,7 +32174,7 @@
         <v>75.61740266760712</v>
       </c>
       <c r="P16" t="n">
-        <v>64.7037512921176</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q16" t="n">
         <v>44.79752353816112</v>
@@ -32183,7 +32183,7 @@
         <v>24.05477705132394</v>
       </c>
       <c r="S16" t="n">
-        <v>9.323293086815202</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T16" t="n">
         <v>2.28583607240644</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718788</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261111</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13277.81055797638</v>
+        <v>97953.63506290068</v>
       </c>
     </row>
     <row r="7">
@@ -8698,7 +8698,7 @@
         <v>47.55688531513388</v>
       </c>
       <c r="M11" t="n">
-        <v>20.92686739226639</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N11" t="n">
         <v>16.60507348116786</v>
@@ -8710,7 +8710,7 @@
         <v>59.72805697682125</v>
       </c>
       <c r="Q11" t="n">
-        <v>93.51262335026311</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>66.54876907979123</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K12" t="n">
-        <v>34.79817869043561</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>12.12044141380177</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q12" t="n">
         <v>58.52562482607891</v>
@@ -8850,7 +8850,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>66.8579709251007</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L13" t="n">
         <v>55.34730792350439</v>
@@ -8865,7 +8865,7 @@
         <v>62.83913578423567</v>
       </c>
       <c r="P13" t="n">
-        <v>73.02425275703003</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8935,7 +8935,7 @@
         <v>47.55688531513388</v>
       </c>
       <c r="M14" t="n">
-        <v>20.92686739226639</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N14" t="n">
         <v>16.60507348116786</v>
@@ -8947,7 +8947,7 @@
         <v>59.72805697682125</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.51262335026311</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>66.54876907979123</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K15" t="n">
-        <v>34.79817869043561</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>12.12044141380177</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q15" t="n">
         <v>58.52562482607891</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>66.8579709251007</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L16" t="n">
         <v>55.34730792350439</v>
@@ -9102,7 +9102,7 @@
         <v>62.83913578423567</v>
       </c>
       <c r="P16" t="n">
-        <v>73.02425275703003</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -11068,7 +11068,7 @@
         <v>47.55688531513388</v>
       </c>
       <c r="M41" t="n">
-        <v>20.92686739226636</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N41" t="n">
         <v>16.60507348116786</v>
@@ -11080,7 +11080,7 @@
         <v>59.72805697682125</v>
       </c>
       <c r="Q41" t="n">
-        <v>93.51262335026308</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>66.54876907979121</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K42" t="n">
-        <v>34.79817869043559</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>12.12044141380176</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q42" t="n">
         <v>58.52562482607891</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>66.85797092510069</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L43" t="n">
         <v>55.34730792350439</v>
@@ -11235,7 +11235,7 @@
         <v>62.83913578423567</v>
       </c>
       <c r="P43" t="n">
-        <v>73.02425275703001</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>74.95115227296736</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S11" t="n">
-        <v>181.8424978167796</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T11" t="n">
         <v>217.8750126833486</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.53808260908391</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S12" t="n">
         <v>159.8302714297086</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>74.95115227296736</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S14" t="n">
-        <v>181.8424978167796</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T14" t="n">
         <v>217.8750126833486</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.53808260908391</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S15" t="n">
         <v>159.8302714297086</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>74.95115227296735</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S41" t="n">
-        <v>181.8424978167795</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T41" t="n">
         <v>217.8750126833486</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>60.5380826090839</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S42" t="n">
         <v>159.8302714297086</v>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886783</v>
       </c>
       <c r="C2" t="n">
         <v>64504.44331886783</v>
       </c>
       <c r="D2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886784</v>
       </c>
       <c r="E2" t="n">
-        <v>71260.70145735363</v>
+        <v>71260.70145735364</v>
       </c>
       <c r="F2" t="n">
-        <v>71260.70145735364</v>
+        <v>71260.70145735361</v>
       </c>
       <c r="G2" t="n">
         <v>71260.70145735363</v>
@@ -26340,7 +26340,7 @@
         <v>71260.70145735363</v>
       </c>
       <c r="K2" t="n">
-        <v>71260.70145735363</v>
+        <v>71260.70145735364</v>
       </c>
       <c r="L2" t="n">
         <v>71260.70145735363</v>
@@ -26352,10 +26352,10 @@
         <v>71260.70145735363</v>
       </c>
       <c r="O2" t="n">
-        <v>71260.70145735363</v>
+        <v>71260.70145735366</v>
       </c>
       <c r="P2" t="n">
-        <v>71260.70145735363</v>
+        <v>71260.70145735364</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27276.7928637455</v>
+        <v>-13641.18629071421</v>
       </c>
       <c r="C6" t="n">
-        <v>-27276.79286374549</v>
+        <v>-13641.18629071421</v>
       </c>
       <c r="D6" t="n">
-        <v>-27276.7928637455</v>
+        <v>-13641.1862907142</v>
       </c>
       <c r="E6" t="n">
-        <v>-199934.1509205065</v>
+        <v>-186805.2637078617</v>
       </c>
       <c r="F6" t="n">
-        <v>38413.2981068396</v>
+        <v>51542.18531948442</v>
       </c>
       <c r="G6" t="n">
-        <v>38413.29810683959</v>
+        <v>51542.18531948444</v>
       </c>
       <c r="H6" t="n">
-        <v>38413.29810683959</v>
+        <v>51542.18531948444</v>
       </c>
       <c r="I6" t="n">
-        <v>38413.29810683959</v>
+        <v>51542.18531948444</v>
       </c>
       <c r="J6" t="n">
-        <v>38413.29810683959</v>
+        <v>51542.18531948444</v>
       </c>
       <c r="K6" t="n">
-        <v>38413.29810683959</v>
+        <v>51542.18531948445</v>
       </c>
       <c r="L6" t="n">
-        <v>38413.29810683959</v>
+        <v>51542.18531948444</v>
       </c>
       <c r="M6" t="n">
-        <v>38413.29810683959</v>
+        <v>51542.18531948444</v>
       </c>
       <c r="N6" t="n">
-        <v>38413.29810683959</v>
+        <v>51542.18531948444</v>
       </c>
       <c r="O6" t="n">
-        <v>38413.29810683959</v>
+        <v>51542.18531948447</v>
       </c>
       <c r="P6" t="n">
-        <v>38413.29810683959</v>
+        <v>51542.18531948445</v>
       </c>
     </row>
   </sheetData>
@@ -31758,7 +31758,7 @@
         <v>12.21425373051196</v>
       </c>
       <c r="I11" t="n">
-        <v>45.97974045605395</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J11" t="n">
         <v>101.2249010189225</v>
@@ -31770,7 +31770,7 @@
         <v>188.2095296548534</v>
       </c>
       <c r="M11" t="n">
-        <v>209.4193658350063</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N11" t="n">
         <v>212.8079901154231</v>
@@ -31785,13 +31785,13 @@
         <v>128.7930665241864</v>
       </c>
       <c r="R11" t="n">
-        <v>74.91796566818232</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S11" t="n">
-        <v>27.17757176946578</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T11" t="n">
-        <v>5.220836880782727</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U11" t="n">
         <v>0.09541221027130049</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.638125413388775</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H12" t="n">
         <v>6.162948071412645</v>
@@ -31922,7 +31922,7 @@
         <v>37.82329177681891</v>
       </c>
       <c r="K13" t="n">
-        <v>62.15528724543468</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L13" t="n">
         <v>79.5373683577339</v>
@@ -31937,7 +31937,7 @@
         <v>75.61740266760712</v>
       </c>
       <c r="P13" t="n">
-        <v>64.70375129211759</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q13" t="n">
         <v>44.79752353816112</v>
@@ -31946,7 +31946,7 @@
         <v>24.05477705132394</v>
       </c>
       <c r="S13" t="n">
-        <v>9.3232930868152</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T13" t="n">
         <v>2.28583607240644</v>
@@ -31995,7 +31995,7 @@
         <v>12.21425373051196</v>
       </c>
       <c r="I14" t="n">
-        <v>45.97974045605395</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J14" t="n">
         <v>101.2249010189225</v>
@@ -32007,7 +32007,7 @@
         <v>188.2095296548534</v>
       </c>
       <c r="M14" t="n">
-        <v>209.4193658350063</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N14" t="n">
         <v>212.8079901154231</v>
@@ -32022,13 +32022,13 @@
         <v>128.7930665241864</v>
       </c>
       <c r="R14" t="n">
-        <v>74.91796566818232</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S14" t="n">
-        <v>27.17757176946578</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T14" t="n">
-        <v>5.220836880782727</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U14" t="n">
         <v>0.09541221027130049</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.638125413388775</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H15" t="n">
         <v>6.162948071412645</v>
@@ -32159,7 +32159,7 @@
         <v>37.82329177681891</v>
       </c>
       <c r="K16" t="n">
-        <v>62.15528724543468</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L16" t="n">
         <v>79.5373683577339</v>
@@ -32174,7 +32174,7 @@
         <v>75.61740266760712</v>
       </c>
       <c r="P16" t="n">
-        <v>64.70375129211759</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q16" t="n">
         <v>44.79752353816112</v>
@@ -32183,7 +32183,7 @@
         <v>24.05477705132394</v>
       </c>
       <c r="S16" t="n">
-        <v>9.3232930868152</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T16" t="n">
         <v>2.28583607240644</v>
@@ -34128,7 +34128,7 @@
         <v>12.21425373051196</v>
       </c>
       <c r="I41" t="n">
-        <v>45.97974045605396</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J41" t="n">
         <v>101.2249010189225</v>
@@ -34140,7 +34140,7 @@
         <v>188.2095296548534</v>
       </c>
       <c r="M41" t="n">
-        <v>209.4193658350064</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N41" t="n">
         <v>212.8079901154231</v>
@@ -34155,13 +34155,13 @@
         <v>128.7930665241864</v>
       </c>
       <c r="R41" t="n">
-        <v>74.91796566818233</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S41" t="n">
-        <v>27.17757176946579</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T41" t="n">
-        <v>5.220836880782728</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U41" t="n">
         <v>0.09541221027130049</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H42" t="n">
         <v>6.162948071412645</v>
@@ -34292,7 +34292,7 @@
         <v>37.82329177681891</v>
       </c>
       <c r="K43" t="n">
-        <v>62.15528724543469</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L43" t="n">
         <v>79.5373683577339</v>
@@ -34307,7 +34307,7 @@
         <v>75.61740266760712</v>
       </c>
       <c r="P43" t="n">
-        <v>64.7037512921176</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q43" t="n">
         <v>44.79752353816112</v>
@@ -34316,7 +34316,7 @@
         <v>24.05477705132394</v>
       </c>
       <c r="S43" t="n">
-        <v>9.323293086815202</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T43" t="n">
         <v>2.28583607240644</v>
